--- a/xml2excel/Tiempos seccionadora.xlsx
+++ b/xml2excel/Tiempos seccionadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\apps-insca\xml2excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30403774-E664-4818-9D42-6FB6F74ACDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D39D1C-7ACF-49DF-A52F-96AD5EFFFDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E86C5B5-9F99-4A36-95AC-071251DD5299}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,72 @@
   </si>
   <si>
     <t>Sup</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>OT/00555</t>
+  </si>
+  <si>
+    <t>A10.085862.ADTZUS</t>
+  </si>
+  <si>
+    <t>MEL DM BLANCO LISO 019mm</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>OT/00554</t>
+  </si>
+  <si>
+    <t>A10.085861.ADTZUS</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>OT/00556</t>
+  </si>
+  <si>
+    <t>A10.085863.ADT000</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>OT/00561</t>
+  </si>
+  <si>
+    <t>A10.085852.ADTZUS</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>OT/00558</t>
+  </si>
+  <si>
+    <t>A10.085855.ADTZUS</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>OT/00559</t>
+  </si>
+  <si>
+    <t>A10.085853.ADTZUS</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>OT/00560</t>
+  </si>
+  <si>
+    <t>A10.085854.ADT000</t>
   </si>
 </sst>
 </file>
@@ -132,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -140,6 +206,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -458,20 +530,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C076CE-C161-46B7-96C2-7678BA796DEA}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11.42578125" style="4"/>
+    <col min="4" max="5" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="13.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -484,13 +558,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -503,13 +577,243 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>520</v>
+      </c>
+      <c r="C2" s="4">
+        <v>520</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>0.27040000000000003</v>
+      </c>
+      <c r="K2">
+        <v>1143</v>
+      </c>
+      <c r="L2">
+        <v>329.10317226089273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>220</v>
+      </c>
+      <c r="C3" s="4">
+        <v>520</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>0.45760000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>505</v>
+      </c>
+      <c r="C4" s="4">
+        <v>505</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0.255025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>920</v>
+      </c>
+      <c r="C5" s="4">
+        <v>320</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>1.1776000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>720</v>
+      </c>
+      <c r="C6" s="4">
+        <v>320</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0.92159999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>320</v>
+      </c>
+      <c r="C7" s="4">
+        <v>320</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0.20480000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>305</v>
+      </c>
+      <c r="C8" s="4">
+        <v>305</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>0.18604999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/xml2excel/Tiempos seccionadora.xlsx
+++ b/xml2excel/Tiempos seccionadora.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\apps-insca\xml2excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D39D1C-7ACF-49DF-A52F-96AD5EFFFDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C0744-37A2-454D-90A3-C59F140D8E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E86C5B5-9F99-4A36-95AC-071251DD5299}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +138,54 @@
   </si>
   <si>
     <t>A10.085854.ADT000</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>OP/24000476</t>
+  </si>
+  <si>
+    <t>A10.200195.ADVZZJ</t>
+  </si>
+  <si>
+    <t>MEL DM BLANCO U566 LISO 025mm</t>
+  </si>
+  <si>
+    <t>OP/24000477</t>
+  </si>
+  <si>
+    <t>A10.200196.ADVZZJ</t>
+  </si>
+  <si>
+    <t>OP/24000479</t>
+  </si>
+  <si>
+    <t>A10.200188.ADVZZJ</t>
+  </si>
+  <si>
+    <t>OP/24000481</t>
+  </si>
+  <si>
+    <t>A10.200170.ADVZZJ</t>
+  </si>
+  <si>
+    <t>OP/23000198</t>
+  </si>
+  <si>
+    <t>A10.039828.AACZZV</t>
+  </si>
+  <si>
+    <t>MEL AG BLANCO SOFT 019mm</t>
+  </si>
+  <si>
+    <t>OP/24000534</t>
+  </si>
+  <si>
+    <t>A10.200204.ADVZZJ</t>
+  </si>
+  <si>
+    <t>MEL DM BLANCO U566 LISO 030mm</t>
   </si>
 </sst>
 </file>
@@ -530,10 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C076CE-C161-46B7-96C2-7678BA796DEA}">
-  <dimension ref="A1:L8"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +590,7 @@
     <col min="2" max="3" width="11.42578125" style="4"/>
     <col min="4" max="5" width="11.42578125" style="6"/>
     <col min="6" max="6" width="13.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
@@ -617,12 +666,6 @@
       <c r="J2">
         <v>0.27040000000000003</v>
       </c>
-      <c r="K2">
-        <v>1143</v>
-      </c>
-      <c r="L2">
-        <v>329.10317226089273</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -814,6 +857,568 @@
       </c>
       <c r="J8">
         <v>0.18604999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>3.4730750000000001</v>
+      </c>
+      <c r="K9">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>920</v>
+      </c>
+      <c r="C11" s="4">
+        <v>320</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1329</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>0.29440000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>0.29440000000000005</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2220</v>
+      </c>
+      <c r="C14" s="4">
+        <v>395</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14">
+        <v>0.87690000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2220</v>
+      </c>
+      <c r="C15" s="4">
+        <v>395</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>0.87690000000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1105</v>
+      </c>
+      <c r="C16" s="4">
+        <v>395</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>0.43647499999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1105</v>
+      </c>
+      <c r="C17" s="4">
+        <v>365</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>0.40332499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>2.5936000000000003</v>
+      </c>
+      <c r="K18">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2220</v>
+      </c>
+      <c r="C20" s="4">
+        <v>395</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>0.87690000000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2220</v>
+      </c>
+      <c r="C21" s="4">
+        <v>395</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>0.87690000000000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1105</v>
+      </c>
+      <c r="C22" s="4">
+        <v>395</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>0.43647499999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1105</v>
+      </c>
+      <c r="C23" s="4">
+        <v>365</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2955</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23">
+        <v>0.40332499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24">
+        <v>2.5936000000000003</v>
+      </c>
+      <c r="K24">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>830</v>
+      </c>
+      <c r="C26" s="4">
+        <v>680</v>
+      </c>
+      <c r="D26" s="6">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>2.2576000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27">
+        <v>2.2576000000000001</v>
+      </c>
+      <c r="K27">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>377</v>
+      </c>
+      <c r="C29" s="4">
+        <v>320</v>
+      </c>
+      <c r="D29" s="6">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1343</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29">
+        <v>2.5334400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30">
+        <v>2.5334400000000001</v>
+      </c>
+      <c r="K30">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/xml2excel/Tiempos seccionadora.xlsx
+++ b/xml2excel/Tiempos seccionadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\apps-insca\xml2excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D68FC3-1857-47F3-B39E-6590CD7FE563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674EB81-32BD-4AA2-A861-F4E9F6542328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E86C5B5-9F99-4A36-95AC-071251DD5299}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L30"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
